--- a/customers.xlsx
+++ b/customers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimitris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimitris\Desktop\projects\MyTestFromGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845069E5-5AC8-4608-9B9D-F6B34D25CB48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6B392-08B1-46A0-8FE1-83F3D4CAC87F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{203BF969-D88B-42C5-B6ED-C6F9ECCAC7A1}"/>
   </bookViews>
@@ -67,16 +67,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,10 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,28 +416,22 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -461,7 +446,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>21916</v>
+        <v>35431</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,6 +479,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>